--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>event_id</t>
   </si>
@@ -28,112 +28,34 @@
     <t>event_data</t>
   </si>
   <si>
-    <t>28ec6f0c-786b-48d1-a6a4-3713f4620e13</t>
-  </si>
-  <si>
-    <t>9dcadd55-3a85-446d-ab7a-5d4a32c8fd30</t>
-  </si>
-  <si>
-    <t>91b056cd-ec07-413c-8a48-cf3dc1026d7a</t>
-  </si>
-  <si>
-    <t>a8e962f6-1de5-44ee-abcd-b894044b1ff0</t>
-  </si>
-  <si>
-    <t>bb577b33-429d-48e4-acb1-bcdf2cf90a42</t>
-  </si>
-  <si>
-    <t>15303d03-ddb7-4970-8b4c-39394c3a22d1</t>
-  </si>
-  <si>
-    <t>ca77379a-534b-490f-8821-180e9b6d1831</t>
-  </si>
-  <si>
-    <t>b550a053-8546-4b44-a968-bdc66209d99b</t>
-  </si>
-  <si>
-    <t>8a443bfa-83fe-42d4-bd55-242c23c4bb5d</t>
-  </si>
-  <si>
-    <t>be1b294c-1863-4c66-ac5e-d4f10b58ae4d</t>
-  </si>
-  <si>
-    <t>d9fd521a-9205-4a57-8c43-504daf75b967</t>
-  </si>
-  <si>
-    <t>6baf6f10-f731-4112-92b7-05cb11f333f7</t>
-  </si>
-  <si>
-    <t>3a19e46f-e905-44fd-bfd9-e8802d43e78a</t>
-  </si>
-  <si>
-    <t>38d52403-ff2e-4718-bb8b-08bd9d2c8546</t>
+    <t>event_title</t>
+  </si>
+  <si>
+    <t>73f3e2f7-370e-4b9c-aba3-c8b97f14f037</t>
+  </si>
+  <si>
+    <t>688eabbb-af7e-4b7f-85a8-1ce90b2efcaa</t>
   </si>
   <si>
     <t>19031998</t>
   </si>
   <si>
-    <t>2023-03-27 10:05:23</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:15:26</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:16:07</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:16:49</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:19:48</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:20:59</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:22:33</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:23:01</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:25:30</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:26:38</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:32:14</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:57:26</t>
-  </si>
-  <si>
-    <t>2023-03-27 10:59:26</t>
-  </si>
-  <si>
-    <t>2023-03-27 13:41:29</t>
-  </si>
-  <si>
-    <t>{'title': 'Hello', 'dates': ['2023-03-28T03:04:26.568Z', '2023-03-29T03:04:26.568Z'], 'description': 'asdf', 'tables_data': [{'name': 'a', 'data': [{'key': '0', 'a': '...', 'b': '...', 'c': '...', 'd': '...'}]}, {'name': 'd', 'data': [{'key': '0', 'd': '...', 'f': '...', 'g': '...', 'h': '...', 'j': '...', 'k': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'asdf', 'dates': ['2023-03-08T03:16:35.500Z', '2023-03-24T03:16:35.500Z'], 'description': 'asdf', 'tables_data': [{'name': 'asd', 'data': [{'key': '0', 'a': '...', 'f': '...', 'gh': '...', 'w': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'asdf', 'dates': ['2023-03-08T03:16:35.500Z', '2023-03-24T03:16:35.500Z'], 'description': 'asdf', 'tables_data': [{'name': 'asd', 'data': [{'key': '0', 'a': '...', 'f': '...', 'gh': '...', 'w': '...'}]}, {'name': 'x', 'data': [{'1': '...', 'key': '0', 'd': '...', 'h': '...', 'jk': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'asdf', 'dates': ['2023-03-28T03:31:59.383Z', '2023-03-29T03:31:59.383Z'], 'description': 'asdf', 'tables_data': [{'name': 'asd', 'data': [{'key': '0', 'a': '...', 's': '...', 'd': '...', 'f': '...', 'g': '...'}]}, {'name': 'x', 'data': [{'key': '0', 'z': '...', 'x': '...', 'f': '...', 'g': '...', 'n': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'dsf', 'dates': ['2023-03-17T03:57:04.505Z', '2023-03-25T03:57:04.505Z'], 'description': 'asdf', 'tables_data': [{'name': '12', 'data': [{'1': '...', '2': '...', '3': '...', '4': '...', '5': '...', '6': '...', 'key': '0'}]}, {'name': 'x', 'data': [{'key': '0', 'fm2': '...', 't': '...', 'hj.23.m34': '...', 'rt': '...', 'h': '...', 'wew': '...', 'ui': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'asdf', 'dates': ['2023-02-28T03:57:04.505Z', '2023-03-14T03:57:04.505Z'], 'description': 'gf', 'tables_data': [{'name': 'x', 'data': [{'12': '...', '32': '...', 'key': '0', '5rt': '...', 'yh': '...'}]}, {'name': 'xa', 'data': [{'2': '...', '3': '...', 'key': '0', 'asdl;g': '...', 'g': '...', '.34rt': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'hello', 'dates': ['2023-03-24T06:41:02.896Z', '2023-04-24T06:41:02.896Z'], 'description': 'asdf', 'tables_data': [{'name': 'bang12', 'data': [{'1': '...', '2': '...', '3': '...', '4': '...', '5': '...', 'key': '0'}]}, {'name': 'x', 'data': [{'3': '...', '4': '...', '5': '...', '12': '...', '67': '...', 'key': '0'}]}]}</t>
+    <t>2023-03-28 11:49:31</t>
+  </si>
+  <si>
+    <t>2023-03-28 11:53:24</t>
+  </si>
+  <si>
+    <t>{'title': 'Hội thao', 'dates': ['2023-03-29T04:47:11.341Z', '2023-03-31T04:47:11.341Z'], 'description': 'Đây là mô tả hội thao', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'Mã số': '...', 'Tên': '...', 'Vị Trí': '...', 'Số Áo': '...'}]}, {'name': 'Cầu lông', 'data': [{'key': '0', 'Mã số': '...', 'Tên': '...', 'giới tính': '...', 'bộ môn': '...'}]}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Văn nghệ', 'dates': ['2023-04-18T04:51:35.195Z', '2023-04-26T04:51:35.195Z'], 'description': 'Mô tả văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'Mã số': '...', 'Tên': '...', 'Bài Hát': '...', 'Link Beat': '...'}]}, {'name': 'Nhảy', 'data': [{'key': '0', 'Mã Số': '...', 'Tên': '...', 'Tiết mục': '...', 'Link Beat': '...', 'Thời gian ước tính': '...'}]}, {'name': 'Múa', 'data': [{'key': '0', 'Mã số': '...', 'tên': '...', 'Tiết mục': '...'}]}]}</t>
+  </si>
+  <si>
+    <t>Hội thao</t>
+  </si>
+  <si>
+    <t>Văn nghệ</t>
   </si>
 </sst>
 </file>
@@ -491,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,201 +432,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -31,31 +31,31 @@
     <t>event_title</t>
   </si>
   <si>
-    <t>73f3e2f7-370e-4b9c-aba3-c8b97f14f037</t>
-  </si>
-  <si>
-    <t>688eabbb-af7e-4b7f-85a8-1ce90b2efcaa</t>
+    <t>d8dca5f0-58f2-4061-9498-c2b1a8da882c</t>
+  </si>
+  <si>
+    <t>2696e973-26ca-4ee1-b851-80e652316441</t>
   </si>
   <si>
     <t>19031998</t>
   </si>
   <si>
-    <t>2023-03-28 11:49:31</t>
-  </si>
-  <si>
-    <t>2023-03-28 11:53:24</t>
-  </si>
-  <si>
-    <t>{'title': 'Hội thao', 'dates': ['2023-03-29T04:47:11.341Z', '2023-03-31T04:47:11.341Z'], 'description': 'Đây là mô tả hội thao', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'Mã số': '...', 'Tên': '...', 'Vị Trí': '...', 'Số Áo': '...'}]}, {'name': 'Cầu lông', 'data': [{'key': '0', 'Mã số': '...', 'Tên': '...', 'giới tính': '...', 'bộ môn': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Văn nghệ', 'dates': ['2023-04-18T04:51:35.195Z', '2023-04-26T04:51:35.195Z'], 'description': 'Mô tả văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'Mã số': '...', 'Tên': '...', 'Bài Hát': '...', 'Link Beat': '...'}]}, {'name': 'Nhảy', 'data': [{'key': '0', 'Mã Số': '...', 'Tên': '...', 'Tiết mục': '...', 'Link Beat': '...', 'Thời gian ước tính': '...'}]}, {'name': 'Múa', 'data': [{'key': '0', 'Mã số': '...', 'tên': '...', 'Tiết mục': '...'}]}]}</t>
-  </si>
-  <si>
-    <t>Hội thao</t>
-  </si>
-  <si>
-    <t>Văn nghệ</t>
+    <t>2023-04-05 17:38:14</t>
+  </si>
+  <si>
+    <t>2023-04-05 17:40:48</t>
+  </si>
+  <si>
+    <t>{'title': 'Hội Thao 2023', 'dates': ['2023-06-22T10:36:37.731Z', '2023-07-17T10:36:37.731Z'], 'description': 'Đây là mô tả hội thao 2023', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Vị trí': '...', 'Số áo': '...'}], 'table_id': 'ab9b88d8-86ed-47c6-a74a-b47281d97538'}, {'name': 'Marathon', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'giới tính': '...'}], 'table_id': '4e4eea51-03fe-4ed4-8039-ae0aaa97b153'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Văn nghệ chào mừng 2023', 'dates': ['2023-06-22T10:38:43.947Z', '2023-06-23T10:38:43.947Z'], 'description': 'Buổi biểu diễn văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Tiết mục': '...', 'Thời gian dự tính': '...'}], 'table_id': '22a206c4-9de8-489d-915c-0f4a1e5c543c'}, {'name': 'Nhảy - múa', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Tiết mục': '...', 'thời gian dự tính': '...', 'Link nhạc': '...'}], 'table_id': '347b1699-c676-43e0-8a36-a6e3a11ba4f9'}]}</t>
+  </si>
+  <si>
+    <t>Hội Thao 2023</t>
+  </si>
+  <si>
+    <t>Văn nghệ chào mừng 2023</t>
   </si>
 </sst>
 </file>

--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C62002-57CC-45A0-A2D8-F207EC41FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -61,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +217,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +269,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -453,7 +505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C62002-57CC-45A0-A2D8-F207EC41FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D934B2-8A5E-4FCC-A563-ED955EBB5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D934B2-8A5E-4FCC-A563-ED955EBB5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>event_id</t>
   </si>
@@ -43,6 +37,15 @@
     <t>2696e973-26ca-4ee1-b851-80e652316441</t>
   </si>
   <si>
+    <t>cf2018bc-a1ab-4597-9263-c5e7a2a8cac6</t>
+  </si>
+  <si>
+    <t>c8984e81-0718-4450-a80a-a9836d8c829c</t>
+  </si>
+  <si>
+    <t>96fb032c-ee81-4297-8d5d-26866becb48b</t>
+  </si>
+  <si>
     <t>19031998</t>
   </si>
   <si>
@@ -52,23 +55,50 @@
     <t>2023-04-05 17:40:48</t>
   </si>
   <si>
+    <t>2023-04-16 19:50:42</t>
+  </si>
+  <si>
+    <t>2023-04-20 19:17:49</t>
+  </si>
+  <si>
+    <t>2023-04-20 20:23:48</t>
+  </si>
+  <si>
     <t>{'title': 'Hội Thao 2023', 'dates': ['2023-06-22T10:36:37.731Z', '2023-07-17T10:36:37.731Z'], 'description': 'Đây là mô tả hội thao 2023', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Vị trí': '...', 'Số áo': '...'}], 'table_id': 'ab9b88d8-86ed-47c6-a74a-b47281d97538'}, {'name': 'Marathon', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'giới tính': '...'}], 'table_id': '4e4eea51-03fe-4ed4-8039-ae0aaa97b153'}]}</t>
   </si>
   <si>
     <t>{'title': 'Văn nghệ chào mừng 2023', 'dates': ['2023-06-22T10:38:43.947Z', '2023-06-23T10:38:43.947Z'], 'description': 'Buổi biểu diễn văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Tiết mục': '...', 'Thời gian dự tính': '...'}], 'table_id': '22a206c4-9de8-489d-915c-0f4a1e5c543c'}, {'name': 'Nhảy - múa', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Tiết mục': '...', 'thời gian dự tính': '...', 'Link nhạc': '...'}], 'table_id': '347b1699-c676-43e0-8a36-a6e3a11ba4f9'}]}</t>
   </si>
   <si>
+    <t>{'title': 'Sự kiện demo', 'dates': ['2023-04-18T12:49:28.298Z', '2023-04-19T12:49:28.298Z'], 'description': 'Mô tả sự kiện demo', 'tables_data': [{'name': 'Nội dung demo', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'Phần': '...', 'Thời gian dự tính': '...'}], 'table_id': '09ed87fe-768f-4999-b4d4-af2e7d064716'}, {'name': 'Bảng 2', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'Cột 3': '...'}], 'table_id': '0db23c2f-ace3-429d-94af-2e7cea02b5d7'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Sự kiện 1', 'dates': ['2023-04-21T12:14:26.519Z', '2023-04-22T12:14:26.519Z'], 'description': 'mô tả', 'tables_data': [{'name': 'bảng 1', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'cột 1': '...', 'cột 2': '...'}], 'table_id': '4246bfce-78f2-4c94-8625-53af1e99ca43'}, {'name': 'bảng 2', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'cột 1': '...'}], 'table_id': '806cd76a-63e4-4ad9-b1c1-3ed6df3df20c'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Chăm lo hoàn cảnh khó khăn', 'dates': ['2023-04-20T13:23:21.525Z', '2023-04-21T13:23:21.525Z'], 'description': 'Chăm lo', 'tables_data': [{'name': 'Danh sách hỗ trợ', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'Hoàn cảnh': '...'}], 'table_id': '0c0af3e1-04b3-431e-8ea6-cba5c47abf43'}]}</t>
+  </si>
+  <si>
     <t>Hội Thao 2023</t>
   </si>
   <si>
     <t>Văn nghệ chào mừng 2023</t>
+  </si>
+  <si>
+    <t>Sự kiện demo</t>
+  </si>
+  <si>
+    <t>Sự kiện 1</t>
+  </si>
+  <si>
+    <t>Chăm lo hoàn cảnh khó khăn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,14 +161,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -185,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,27 +239,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,24 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,16 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,38 +472,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\event\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA503E7-990F-42E1-81DB-376C95AF2954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,21 +70,6 @@
     <t>2023-04-20 20:23:48</t>
   </si>
   <si>
-    <t>{'title': 'Hội Thao 2023', 'dates': ['2023-06-22T10:36:37.731Z', '2023-07-17T10:36:37.731Z'], 'description': 'Đây là mô tả hội thao 2023', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Vị trí': '...', 'Số áo': '...'}], 'table_id': 'ab9b88d8-86ed-47c6-a74a-b47281d97538'}, {'name': 'Marathon', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'giới tính': '...'}], 'table_id': '4e4eea51-03fe-4ed4-8039-ae0aaa97b153'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Văn nghệ chào mừng 2023', 'dates': ['2023-06-22T10:38:43.947Z', '2023-06-23T10:38:43.947Z'], 'description': 'Buổi biểu diễn văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Tiết mục': '...', 'Thời gian dự tính': '...'}], 'table_id': '22a206c4-9de8-489d-915c-0f4a1e5c543c'}, {'name': 'Nhảy - múa', 'data': [{'key': '0', 'Mã nhân viên': '...', 'Tên': '...', 'Tiết mục': '...', 'thời gian dự tính': '...', 'Link nhạc': '...'}], 'table_id': '347b1699-c676-43e0-8a36-a6e3a11ba4f9'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Sự kiện demo', 'dates': ['2023-04-18T12:49:28.298Z', '2023-04-19T12:49:28.298Z'], 'description': 'Mô tả sự kiện demo', 'tables_data': [{'name': 'Nội dung demo', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'Phần': '...', 'Thời gian dự tính': '...'}], 'table_id': '09ed87fe-768f-4999-b4d4-af2e7d064716'}, {'name': 'Bảng 2', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'Cột 3': '...'}], 'table_id': '0db23c2f-ace3-429d-94af-2e7cea02b5d7'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Sự kiện 1', 'dates': ['2023-04-21T12:14:26.519Z', '2023-04-22T12:14:26.519Z'], 'description': 'mô tả', 'tables_data': [{'name': 'bảng 1', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'cột 1': '...', 'cột 2': '...'}], 'table_id': '4246bfce-78f2-4c94-8625-53af1e99ca43'}, {'name': 'bảng 2', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'cột 1': '...'}], 'table_id': '806cd76a-63e4-4ad9-b1c1-3ed6df3df20c'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Chăm lo hoàn cảnh khó khăn', 'dates': ['2023-04-20T13:23:21.525Z', '2023-04-21T13:23:21.525Z'], 'description': 'Chăm lo', 'tables_data': [{'name': 'Danh sách hỗ trợ', 'data': [{'key': '0', 'Mã Nhân Viên': '...', 'Tên': '...', 'Hoàn cảnh': '...'}], 'table_id': '0c0af3e1-04b3-431e-8ea6-cba5c47abf43'}]}</t>
-  </si>
-  <si>
     <t>Hội Thao 2023</t>
   </si>
   <si>
@@ -92,13 +83,28 @@
   </si>
   <si>
     <t>Chăm lo hoàn cảnh khó khăn</t>
+  </si>
+  <si>
+    <t>{'title': 'Hội Thao 2023', 'dates': ['2023-06-22T10:36:37.731Z', '2023-07-17T10:36:37.731Z'], 'description': 'Đây là mô tả hội thao 2023', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Vị trí': '...', 'Số áo': '...'}], 'table_id': 'ab9b88d8-86ed-47c6-a74a-b47281d97538'}, {'name': 'Marathon', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'giới tính': '...'}], 'table_id': '4e4eea51-03fe-4ed4-8039-ae0aaa97b153'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Văn nghệ chào mừng 2023', 'dates': ['2023-06-22T10:38:43.947Z', '2023-06-23T10:38:43.947Z'], 'description': 'Buổi biểu diễn văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Tiết mục': '...', 'Thời gian dự tính': '...'}], 'table_id': '22a206c4-9de8-489d-915c-0f4a1e5c543c'}, {'name': 'Nhảy - múa', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Tiết mục': '...', 'thời gian dự tính': '...', 'Link nhạc': '...'}], 'table_id': '347b1699-c676-43e0-8a36-a6e3a11ba4f9'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Sự kiện demo', 'dates': ['2023-04-18T12:49:28.298Z', '2023-04-19T12:49:28.298Z'], 'description': 'Mô tả sự kiện demo', 'tables_data': [{'name': 'Nội dung demo', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Phần': '...', 'Thời gian dự tính': '...'}], 'table_id': '09ed87fe-768f-4999-b4d4-af2e7d064716'}, {'name': 'Bảng 2', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Cột 3': '...'}], 'table_id': '0db23c2f-ace3-429d-94af-2e7cea02b5d7'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Sự kiện 1', 'dates': ['2023-04-21T12:14:26.519Z', '2023-04-22T12:14:26.519Z'], 'description': 'mô tả', 'tables_data': [{'name': 'bảng 1', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'cột 1': '...', 'cột 2': '...'}], 'table_id': '4246bfce-78f2-4c94-8625-53af1e99ca43'}, {'name': 'bảng 2', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'cột 1': '...'}], 'table_id': '806cd76a-63e4-4ad9-b1c1-3ed6df3df20c'}]}</t>
+  </si>
+  <si>
+    <t>{'title': 'Chăm lo hoàn cảnh khó khăn', 'dates': ['2023-04-20T13:23:21.525Z', '2023-04-21T13:23:21.525Z'], 'description': 'Chăm lo', 'tables_data': [{'name': 'Danh sách hỗ trợ', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Hoàn cảnh': '...'}], 'table_id': '0c0af3e1-04b3-431e-8ea6-cba5c47abf43'}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +253,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +305,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,14 +498,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -483,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -500,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -517,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -534,13 +590,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -551,10 +607,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/event/event_db.xlsx
+++ b/app/database/event/event_db.xlsx
@@ -1,129 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\event\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA503E7-990F-42E1-81DB-376C95AF2954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>event_id</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>event_data</t>
-  </si>
-  <si>
-    <t>event_title</t>
-  </si>
-  <si>
-    <t>d8dca5f0-58f2-4061-9498-c2b1a8da882c</t>
-  </si>
-  <si>
-    <t>2696e973-26ca-4ee1-b851-80e652316441</t>
-  </si>
-  <si>
-    <t>cf2018bc-a1ab-4597-9263-c5e7a2a8cac6</t>
-  </si>
-  <si>
-    <t>c8984e81-0718-4450-a80a-a9836d8c829c</t>
-  </si>
-  <si>
-    <t>96fb032c-ee81-4297-8d5d-26866becb48b</t>
-  </si>
-  <si>
-    <t>19031998</t>
-  </si>
-  <si>
-    <t>2023-04-05 17:38:14</t>
-  </si>
-  <si>
-    <t>2023-04-05 17:40:48</t>
-  </si>
-  <si>
-    <t>2023-04-16 19:50:42</t>
-  </si>
-  <si>
-    <t>2023-04-20 19:17:49</t>
-  </si>
-  <si>
-    <t>2023-04-20 20:23:48</t>
-  </si>
-  <si>
-    <t>Hội Thao 2023</t>
-  </si>
-  <si>
-    <t>Văn nghệ chào mừng 2023</t>
-  </si>
-  <si>
-    <t>Sự kiện demo</t>
-  </si>
-  <si>
-    <t>Sự kiện 1</t>
-  </si>
-  <si>
-    <t>Chăm lo hoàn cảnh khó khăn</t>
-  </si>
-  <si>
-    <t>{'title': 'Hội Thao 2023', 'dates': ['2023-06-22T10:36:37.731Z', '2023-07-17T10:36:37.731Z'], 'description': 'Đây là mô tả hội thao 2023', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Vị trí': '...', 'Số áo': '...'}], 'table_id': 'ab9b88d8-86ed-47c6-a74a-b47281d97538'}, {'name': 'Marathon', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'giới tính': '...'}], 'table_id': '4e4eea51-03fe-4ed4-8039-ae0aaa97b153'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Văn nghệ chào mừng 2023', 'dates': ['2023-06-22T10:38:43.947Z', '2023-06-23T10:38:43.947Z'], 'description': 'Buổi biểu diễn văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Tiết mục': '...', 'Thời gian dự tính': '...'}], 'table_id': '22a206c4-9de8-489d-915c-0f4a1e5c543c'}, {'name': 'Nhảy - múa', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Tiết mục': '...', 'thời gian dự tính': '...', 'Link nhạc': '...'}], 'table_id': '347b1699-c676-43e0-8a36-a6e3a11ba4f9'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Sự kiện demo', 'dates': ['2023-04-18T12:49:28.298Z', '2023-04-19T12:49:28.298Z'], 'description': 'Mô tả sự kiện demo', 'tables_data': [{'name': 'Nội dung demo', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Phần': '...', 'Thời gian dự tính': '...'}], 'table_id': '09ed87fe-768f-4999-b4d4-af2e7d064716'}, {'name': 'Bảng 2', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Cột 3': '...'}], 'table_id': '0db23c2f-ace3-429d-94af-2e7cea02b5d7'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Sự kiện 1', 'dates': ['2023-04-21T12:14:26.519Z', '2023-04-22T12:14:26.519Z'], 'description': 'mô tả', 'tables_data': [{'name': 'bảng 1', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'cột 1': '...', 'cột 2': '...'}], 'table_id': '4246bfce-78f2-4c94-8625-53af1e99ca43'}, {'name': 'bảng 2', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'cột 1': '...'}], 'table_id': '806cd76a-63e4-4ad9-b1c1-3ed6df3df20c'}]}</t>
-  </si>
-  <si>
-    <t>{'title': 'Chăm lo hoàn cảnh khó khăn', 'dates': ['2023-04-20T13:23:21.525Z', '2023-04-21T13:23:21.525Z'], 'description': 'Chăm lo', 'tables_data': [{'name': 'Danh sách hỗ trợ', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Hoàn cảnh': '...'}], 'table_id': '0c0af3e1-04b3-431e-8ea6-cba5c47abf43'}]}</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -221,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,27 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,24 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,122 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>event_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>event_title</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d8dca5f0-58f2-4061-9498-c2b1a8da882c</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19031998</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-04-05 17:38:14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'title': 'Hội Thao 2023', 'dates': ['2023-06-22T10:36:37.731Z', '2023-07-17T10:36:37.731Z'], 'description': 'Đây là mô tả hội thao 2023', 'tables_data': [{'name': 'Bóng đá', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Vị trí': '...', 'Số áo': '...'}], 'table_id': 'ab9b88d8-86ed-47c6-a74a-b47281d97538'}, {'name': 'Marathon', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'giới tính': '...'}], 'table_id': '4e4eea51-03fe-4ed4-8039-ae0aaa97b153'}]}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hội Thao 2023</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2696e973-26ca-4ee1-b851-80e652316441</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>19031998</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-04-05 17:40:48</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'title': 'Văn nghệ chào mừng 2023', 'dates': ['2023-06-22T10:38:43.947Z', '2023-06-23T10:38:43.947Z'], 'description': 'Buổi biểu diễn văn nghệ', 'tables_data': [{'name': 'Hát', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Tiết mục': '...', 'Thời gian dự tính': '...'}], 'table_id': '22a206c4-9de8-489d-915c-0f4a1e5c543c'}, {'name': 'Nhảy - múa', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Tiết mục': '...', 'thời gian dự tính': '...', 'Link nhạc': '...'}], 'table_id': '347b1699-c676-43e0-8a36-a6e3a11ba4f9'}]}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Văn nghệ chào mừng 2023</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cf2018bc-a1ab-4597-9263-c5e7a2a8cac6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>19031998</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-04-16 19:50:42</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'title': 'Sự kiện demo', 'dates': ['2023-04-18T12:49:28.298Z', '2023-04-19T12:49:28.298Z'], 'description': 'Mô tả sự kiện demo', 'tables_data': [{'name': 'Nội dung demo', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Phần': '...', 'Thời gian dự tính': '...'}], 'table_id': '09ed87fe-768f-4999-b4d4-af2e7d064716'}, {'name': 'Bảng 2', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Cột 3': '...'}], 'table_id': '0db23c2f-ace3-429d-94af-2e7cea02b5d7'}]}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sự kiện demo</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c8984e81-0718-4450-a80a-a9836d8c829c</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19031998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-04-20 19:17:49</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'title': 'Sự kiện 1', 'dates': ['2023-04-21T12:14:26.519Z', '2023-04-22T12:14:26.519Z'], 'description': 'mô tả', 'tables_data': [{'name': 'bảng 1', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'cột 1': '...', 'cột 2': '...'}], 'table_id': '4246bfce-78f2-4c94-8625-53af1e99ca43'}, {'name': 'bảng 2', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'cột 1': '...'}], 'table_id': '806cd76a-63e4-4ad9-b1c1-3ed6df3df20c'}]}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sự kiện 1</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>96fb032c-ee81-4297-8d5d-26866becb48b</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>19031998</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-04-20 20:23:48</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'title': 'Chăm lo hoàn cảnh khó khăn', 'dates': ['2023-04-20T13:23:21.525Z', '2023-04-21T13:23:21.525Z'], 'description': 'Chăm lo', 'tables_data': [{'name': 'Danh sách hỗ trợ', 'data': [{'key': '0', 'employee_id': '...', 'Tên': '...', 'Hoàn cảnh': '...'}], 'table_id': '0c0af3e1-04b3-431e-8ea6-cba5c47abf43'}]}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chăm lo hoàn cảnh khó khăn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5a0f7fea-d60c-44f1-8418-04d119ab5bd9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-05-12 17:12:46</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'title': 'SEAGAMES 23', 'dates': ['2023-05-19T17:10:51.769Z', '2023-06-29T17:10:51.769Z'], 'description': 'Hội thao công đoàn', 'tables_data': [{'name': 'Support team', 'data': [{'key': '0', 'Tên': '...', 'Chức vụ': '...'}], 'table_id': 'f35d031c-3a67-44a1-8bda-736796c0cc29'}]}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SEAGAMES 23</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>